--- a/testing_textbox/emans_info.xlsx
+++ b/testing_textbox/emans_info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce8fb9aa027327a5/Documents/Important_Files/Life_2023/00_organization_of_self/04_enhance_self/00_memorizingNumbers/testing_textbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ce8fb9aa027327a5/Documents/Important_Files/Life_2024/00_organization_of_self/04_enhance_self/00_memorizingNumbers/testing_textbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="459" documentId="8_{0DF0F145-F453-4261-B071-A88453DC07BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D67BC01-4536-48D6-A142-4E7D05C516CC}"/>
+  <xr:revisionPtr revIDLastSave="477" documentId="8_{0DF0F145-F453-4261-B071-A88453DC07BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A638C6E0-9C89-4172-A4BE-1590E5BD1796}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="28800" windowHeight="15345" xr2:uid="{B6F01CD5-A867-4D92-B252-826D15D0A889}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B6F01CD5-A867-4D92-B252-826D15D0A889}"/>
   </bookViews>
   <sheets>
     <sheet name="e" sheetId="3" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="305">
   <si>
     <t>set-20</t>
   </si>
@@ -908,6 +908,66 @@
   </si>
   <si>
     <t>08868'</t>
+  </si>
+  <si>
+    <t>44716'</t>
+  </si>
+  <si>
+    <t>25607'</t>
+  </si>
+  <si>
+    <t>98826'</t>
+  </si>
+  <si>
+    <t>51787'</t>
+  </si>
+  <si>
+    <t>13419'</t>
+  </si>
+  <si>
+    <t>51245'</t>
+  </si>
+  <si>
+    <t>65201'</t>
+  </si>
+  <si>
+    <t>03059'</t>
+  </si>
+  <si>
+    <t>21236'</t>
+  </si>
+  <si>
+    <t>67719'</t>
+  </si>
+  <si>
+    <t>43252'</t>
+  </si>
+  <si>
+    <t>78675'</t>
+  </si>
+  <si>
+    <t>39855'</t>
+  </si>
+  <si>
+    <t>89448'</t>
+  </si>
+  <si>
+    <t>96970'</t>
+  </si>
+  <si>
+    <t>96409'</t>
+  </si>
+  <si>
+    <t>set-57</t>
+  </si>
+  <si>
+    <t>set-58</t>
+  </si>
+  <si>
+    <t>set-59</t>
+  </si>
+  <si>
+    <t>set-60</t>
   </si>
 </sst>
 </file>
@@ -969,12 +1029,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1019,8 +1081,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A24A5400-59ED-E641-B1D5-EECCF5284922}" name="Table4" displayName="Table4" ref="A1:E57" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
-  <autoFilter ref="A1:E57" xr:uid="{A24A5400-59ED-E641-B1D5-EECCF5284922}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A24A5400-59ED-E641-B1D5-EECCF5284922}" name="Table4" displayName="Table4" ref="A1:E61" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="Normal 3" dataCellStyle="Normal 3">
+  <autoFilter ref="A1:E61" xr:uid="{A24A5400-59ED-E641-B1D5-EECCF5284922}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{39BE7915-8CF1-0946-91C4-B68BEA7E38DC}" name="set" dataCellStyle="Normal 3"/>
     <tableColumn id="2" xr3:uid="{8E6D2FED-B8B3-5741-9CBB-AC0D35E003F3}" name="col-1" dataCellStyle="Normal 3"/>
@@ -1033,9 +1095,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1073,7 +1135,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1179,7 +1241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1321,7 +1383,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1337,10 +1399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C3EFD04-1EED-4E99-A45A-FBE7EA13D160}">
-  <dimension ref="A1:E57"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E6"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A56" sqref="A56:A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="23.25" x14ac:dyDescent="0.35"/>
@@ -2321,6 +2383,74 @@
         <v>260</v>
       </c>
     </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D58" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="E58" s="6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="C59" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D59" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="E59" s="6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="C60" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="E60" s="6" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="C61" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D61" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="E61" s="6" t="s">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
